--- a/3008播放器.xlsx
+++ b/3008播放器.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>问题</t>
   </si>
@@ -201,6 +201,9 @@
     <t>主要是内存问题。</t>
   </si>
   <si>
+    <t>setselection之后，不需要再去update了，很消耗内存。</t>
+  </si>
+  <si>
     <t>优化一下代码，比如增加注释，对调试信息的管控、改善列表页面判断的顺序，对常量进行全局的管理，去掉一些没有用的代码等等。查找一下隐藏的bug。</t>
   </si>
   <si>
@@ -475,6 +478,42 @@
   </si>
   <si>
     <t>盖一层黑色的背景</t>
+  </si>
+  <si>
+    <t>随机播放算法有两种，一种是单个随机算法，这样无法记录上一次的播放，按下上一曲返回实现困难。第二种是洗牌算法shuffle，重新构造一个随机列表进行播放。这个版本实现了单个随机的算法，由于无法记录，需要修改为shuffle算法，这里留下来做备份。</t>
+  </si>
+  <si>
+    <t>需要在视频播放和图片播放界面都加入设备插入的检测。存档备份</t>
+  </si>
+  <si>
+    <t>切换语言导致视频重音问题，音频、图片都存在问题。主要是fragment被attach了两次，</t>
+  </si>
+  <si>
+    <t>在activity中判断savedInstanceState，如果非空，则fragment直接获取，不能进行initfragment</t>
+  </si>
+  <si>
+    <t>花了整整两天的时间</t>
+  </si>
+  <si>
+    <t>根据用户要求，需要把源放在所有的fragment进行显示，这里做备份准备修改。</t>
+  </si>
+  <si>
+    <t>语言修改后，注意一些初始化的list变量，要清空，否则会double。</t>
+  </si>
+  <si>
+    <t>准备修改蓝牙服务了，留下来做备份。</t>
+  </si>
+  <si>
+    <t>修改完了，但是存在很多问题，明天来修改。</t>
+  </si>
+  <si>
+    <t>每个app对应一个源，在mediaplayer中存在多种设备，就存在多个源，多个源不同同时对应一个sourcectrl，所以这里做了修改，针对亿等连源进行了处理，同时也理清楚了内部的源的控制。</t>
+  </si>
+  <si>
+    <t>准备修改设备接入的弹窗状态，在服务中弹窗选择是否启动应用。这里做备份。</t>
+  </si>
+  <si>
+    <t>不需要再mediaplayer中去响应设备的状态弹窗，修改为在常驻的服务中，去弹窗，然后发送广播通知mediaplayer是否切换，所有的弹窗都在mediaplayer中去做</t>
   </si>
 </sst>
 </file>
@@ -482,10 +521,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -493,13 +532,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,44 +553,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,6 +583,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -605,13 +607,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -619,7 +614,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +688,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,30 +730,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -703,43 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,19 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,13 +850,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,10 +987,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,137 +999,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1139,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,13 +1152,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1462,10 +1507,10 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1888,7 +1933,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="27" spans="1:7">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -1898,7 +1943,9 @@
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1908,11 +1955,11 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>
@@ -1927,11 +1974,11 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>35</v>
@@ -1946,11 +1993,11 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>35</v>
@@ -1960,24 +2007,24 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" ht="45" customHeight="1" spans="1:7">
+    <row r="26" ht="92" customHeight="1" spans="1:7">
       <c r="A26" s="1">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1986,16 +2033,16 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:6">
@@ -2003,16 +2050,16 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:6">
@@ -2020,16 +2067,16 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2037,16 +2084,16 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:6">
@@ -2054,21 +2101,21 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" ht="33.75" customHeight="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2076,21 +2123,21 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="57.75" customHeight="1" spans="1:6">
+    <row r="33" ht="99" customHeight="1" spans="1:6">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>85</v>
+      <c r="F33" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" ht="57.75" customHeight="1" spans="1:6">
@@ -2098,19 +2145,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" ht="69.75" customHeight="1" spans="1:7">
@@ -2118,19 +2165,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>91</v>
+      <c r="F35" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>51</v>
@@ -2141,16 +2188,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>91</v>
+      <c r="F36" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -2158,10 +2205,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>35</v>
@@ -2172,16 +2219,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>85</v>
+      <c r="F38" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:6">
@@ -2189,19 +2236,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>91</v>
+      <c r="F39" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2209,44 +2256,44 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" ht="65.1" customHeight="1" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" ht="88.5" customHeight="1" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" ht="105.75" customHeight="1" spans="1:6">
@@ -2254,19 +2301,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2274,16 +2321,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:6">
@@ -2291,16 +2338,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2308,16 +2355,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2325,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:6">
@@ -2333,38 +2380,38 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" ht="85.5" customHeight="1" spans="2:6">
-      <c r="B49" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2372,13 +2419,13 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>123</v>
+      <c r="B51" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2386,13 +2433,13 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>125</v>
+      <c r="B52" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2400,20 +2447,20 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>127</v>
+      <c r="B53" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="54" ht="69" customHeight="1" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2424,34 +2471,34 @@
       <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>130</v>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" ht="153" customHeight="1" spans="1:5">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="C56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>133</v>
+      <c r="B57" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2464,13 +2511,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>35</v>
@@ -2481,10 +2528,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8" t="s">
@@ -2496,10 +2543,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
@@ -2510,221 +2557,258 @@
       <c r="A61" s="8">
         <v>57</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>143</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:7">
-      <c r="A62" s="6">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" ht="27" spans="1:7">
-      <c r="A63" s="6">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" ht="27" spans="1:7">
-      <c r="A64" s="6">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="6">
+      <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" ht="54" spans="1:7">
+      <c r="A66" s="3">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="9">
+        <v>42556</v>
+      </c>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="9">
+        <v>42557</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" ht="27" spans="1:7">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="9">
+        <v>42558</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:7">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="9">
+        <v>42565</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="9">
+        <v>42566</v>
+      </c>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="9">
+        <v>42566</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" ht="40.5" spans="1:7">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="9">
+        <v>42566</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" ht="146" customHeight="1" spans="1:7">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="9">
+        <v>42576</v>
+      </c>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8"/>
